--- a/сообщения.xlsx
+++ b/сообщения.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Header</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Придумать нормальный ответ от шлюза</t>
+  </si>
+  <si>
+    <t>1) Сообщение с ответом от шлюза должно отличаться от остальных</t>
+  </si>
+  <si>
+    <t>2) ID сообщений должно работать как-то иначе.255 мало</t>
+  </si>
+  <si>
+    <t>3) Нужно как-то запоминать какие сообщения я уже ретранслировал, во избежание пинг-понга</t>
   </si>
 </sst>
 </file>
@@ -504,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:J16"/>
+  <dimension ref="C4:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +526,7 @@
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
@@ -533,7 +542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
@@ -555,22 +564,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
